--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1070935.426676669</v>
+        <v>1063308.976848919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564208</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.8068021338316</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>348.5362376387985</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>80.88877949312982</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>370.304756115063</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.58025713289472</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>147.2907482601406</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>14.89518631743307</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>84.4526210585752</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.94935504550583</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>205.1478855987998</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>226.5550410134733</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1819,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903397</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>402.8421290867196</v>
       </c>
       <c r="H17" t="n">
-        <v>226.5550410134733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>70.16758029820794</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>269.5134569480832</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>16.60557849018839</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.31590541686252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>131.2830259545907</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>28.44734925172066</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>54.47555601903409</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228957</v>
+        <v>327.1485339723819</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2755,28 +2755,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>54.47555601903397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>119.7724623130968</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>96.53241147262429</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2959,19 +2959,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>17.13267830032996</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>230.263497954106</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>230.7500495332066</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>43.3178534391397</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28266751616624</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>323.9918595228955</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>334.5817096732204</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>34.45403149117919</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.37682225755638</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3506,22 +3506,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>142.2551106500947</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>22.02087812852597</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.089163843681</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>392.2167866975187</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.1568209712021</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>392.2167866975187</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>109.4741142561155</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,19 +4138,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>59.6638564154455</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.603677789272</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>534.603677789272</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284106</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082938</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2656.158932298127</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2656.158932298127</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.52426527019</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.52426527019</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.461377926619</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.692722656504</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561872</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7754666214607</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D8" t="n">
-        <v>588.5097680147103</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E8" t="n">
-        <v>202.721515416466</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F8" t="n">
-        <v>202.721515416466</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625994</v>
+        <v>921.2035178533938</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4863,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>952.5674858910851</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C11" t="n">
-        <v>952.5674858910851</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D11" t="n">
-        <v>952.5674858910851</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E11" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
@@ -5039,13 +5039,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5057,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1386.090004781549</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>995.9506728057374</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2224.752638628377</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C14" t="n">
-        <v>1855.790121687965</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.524423081215</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E14" t="n">
-        <v>1111.73617048297</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F14" t="n">
-        <v>700.7502656933627</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G14" t="n">
-        <v>282.7864575915496</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5279,22 +5279,22 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
@@ -5306,22 +5306,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="15">
@@ -5331,73 +5331,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5440,31 +5440,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036445</v>
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2224.752638628377</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="C17" t="n">
-        <v>1855.790121687965</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="D17" t="n">
-        <v>1497.524423081215</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="E17" t="n">
-        <v>1111.73617048297</v>
+        <v>1199.034848075706</v>
       </c>
       <c r="F17" t="n">
-        <v>700.7502656933627</v>
+        <v>788.0489432860986</v>
       </c>
       <c r="G17" t="n">
-        <v>282.7864575915496</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.752638628377</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.752638628377</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.752638628377</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y17" t="n">
-        <v>2224.752638628377</v>
+        <v>1584.82310067395</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
         <v>713.8062203571349</v>
@@ -5607,10 +5607,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>261.1482364572798</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>261.1482364572798</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>261.1482364572798</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942404</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U19" t="n">
-        <v>550.5654064942404</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V19" t="n">
-        <v>550.5654064942404</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W19" t="n">
-        <v>261.1482364572798</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>261.1482364572798</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>261.1482364572798</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1954.141365880777</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1954.141365880777</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U20" t="n">
-        <v>2680.375779411972</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V20" t="n">
-        <v>2680.375779411972</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W20" t="n">
-        <v>2327.607124141857</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X20" t="n">
-        <v>1954.141365880777</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y20" t="n">
-        <v>1954.141365880777</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5841,13 +5841,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.959449965771</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9969330253592</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>1401.290064435879</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036446</v>
+        <v>1015.501811837634</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>604.5159070480267</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>186.5520989462136</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6005,34 +6005,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2669.933035536899</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2669.933035536899</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>2317.164380266785</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1943.698622005704</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y23" t="n">
-        <v>1553.559290029893</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6072,10 +6072,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7458231623355</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2077.988902792793</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776798</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785536</v>
+        <v>384.396046438932</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889461</v>
+        <v>384.396046438932</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1362.14067848328</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1362.14067848328</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1003.874979876529</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>1003.874979876529</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>592.8890750869218</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>174.9252669851087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>174.9252669851087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990286</v>
+        <v>2325.978248184794</v>
       </c>
       <c r="V29" t="n">
-        <v>2478.514423990286</v>
+        <v>1994.915360841223</v>
       </c>
       <c r="W29" t="n">
-        <v>2125.745768720171</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X29" t="n">
-        <v>1752.280010459091</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y29" t="n">
-        <v>1362.14067848328</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6552,13 +6552,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>2482.860667836386</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>2255.552480504988</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>797.9969330253592</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253592</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036446</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
         <v>53.94298182036446</v>
@@ -6728,22 +6728,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2245.433565875936</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>1914.370678532365</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>1561.602023262251</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1188.136265001171</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y32" t="n">
-        <v>797.9969330253592</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064344</v>
+        <v>2066.718496146436</v>
       </c>
       <c r="C34" t="n">
-        <v>559.1928012785276</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>559.1928012785276</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>411.2797076961344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064344</v>
+        <v>2469.159540120206</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064344</v>
+        <v>2248.366960976676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,70 +6911,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1546.94416071721</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1188.678462110459</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>802.8902095122148</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>391.9043047226073</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
         <v>2323.683332757143</v>
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F37" t="n">
-        <v>2531.696696795508</v>
+        <v>551.8221175621458</v>
       </c>
       <c r="G37" t="n">
-        <v>2362.696896533841</v>
+        <v>382.8223173004782</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.948523966371</v>
+        <v>225.0739447330083</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>88.74503383165657</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y37" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.8693068625894</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="C38" t="n">
-        <v>471.9067899221776</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>583.4232653783004</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>197.6350127800561</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>197.6350127800561</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>197.6350127800561</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>197.6350127800561</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2674.905779777288</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2343.842892433717</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>1991.074237163603</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X38" t="n">
-        <v>1617.608478902523</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y38" t="n">
-        <v>1227.469146926711</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7269,7 +7269,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>525.0086166875648</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>525.0086166875648</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U40" t="n">
-        <v>525.0086166875648</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V40" t="n">
-        <v>525.0086166875648</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1194.175505447095</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>835.9098068403448</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E41" t="n">
-        <v>450.1215542421006</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487029</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.942782082032</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>618.8796700941091</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>404.5912469122717</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>404.5912469122717</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>404.5912469122717</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>404.5912469122717</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y43" t="n">
-        <v>404.5912469122717</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.175505447095</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C44" t="n">
-        <v>1194.175505447095</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D44" t="n">
-        <v>835.9098068403448</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E44" t="n">
-        <v>450.1215542421006</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748109</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487029</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.775345511217</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C46" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D46" t="n">
-        <v>578.0123447940987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E46" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.9270395296489</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>16.73665413220903</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22762,13 +22762,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>171.2488638306982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>12.42908554841756</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22802,7 +22802,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.89814544191697</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,16 +22948,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>266.4934217606544</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,22 +23072,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>371.3427523386205</v>
       </c>
     </row>
     <row r="9">
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.7844866179747</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,13 +23312,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,28 +23416,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>81.37511273779117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>97.36773175088385</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23674,7 +23674,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229438</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,10 +23732,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>10.94204093407535</v>
       </c>
       <c r="H17" t="n">
-        <v>97.36773175088385</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,25 +23777,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>76.26638234836123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>28.31325977179807</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>85.16958467259974</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,19 +24023,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>234.6185890181009</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24184,16 +24184,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.2687479352323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,13 +24215,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>192.6397468097665</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>27.53450764830092</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,19 +24260,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>120.1681237664917</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789928</v>
+        <v>86.63563604841306</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24643,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053969</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,10 +24683,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>32.15885393176445</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,10 +24734,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>154.691756035665</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24847,19 +24847,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2883697226013</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>56.01837628787177</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24962,25 +24962,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>20.47411797508269</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,31 +25072,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>115.138380506765</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>79.20246034757463</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25333,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>10.74592769735791</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25394,22 +25394,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>9.676205594766515</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>229.2032893797633</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>11.05637510633795</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>14.65925904419277</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>4.732187490914384</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>38.50837100895573</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>14.65925904419277</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>260.2569864223535</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26026,25 +26026,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,13 +26077,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>50.78177823929096</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798134</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="F2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="H2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="I2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="J2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="K2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="L2" t="n">
         <v>303610.2405165453</v>
       </c>
-      <c r="L2" t="n">
-        <v>303610.2405165454</v>
-      </c>
       <c r="M2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="N2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="O2" t="n">
         <v>303610.2405165455</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="H4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="I4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="O4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26488,28 +26488,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404249.9377988603</v>
+        <v>-405161.4634016752</v>
       </c>
       <c r="C6" t="n">
-        <v>185717.9414156842</v>
+        <v>184806.4158128692</v>
       </c>
       <c r="D6" t="n">
-        <v>185717.941415684</v>
+        <v>184806.4158128692</v>
       </c>
       <c r="E6" t="n">
-        <v>219345.541415684</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="F6" t="n">
-        <v>219345.541415684</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="G6" t="n">
-        <v>219345.5414156842</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="H6" t="n">
-        <v>219345.541415684</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="I6" t="n">
-        <v>219345.541415684</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="J6" t="n">
-        <v>42922.32222309103</v>
+        <v>42010.79662027613</v>
       </c>
       <c r="K6" t="n">
-        <v>219345.5414156839</v>
+        <v>218434.0158128693</v>
       </c>
       <c r="L6" t="n">
-        <v>219345.541415684</v>
+        <v>218434.015812869</v>
       </c>
       <c r="M6" t="n">
-        <v>219345.541415684</v>
+        <v>218434.0158128691</v>
       </c>
       <c r="N6" t="n">
-        <v>219345.541415684</v>
+        <v>218434.015812869</v>
       </c>
       <c r="O6" t="n">
-        <v>219345.5414156841</v>
+        <v>218434.0158128692</v>
       </c>
       <c r="P6" t="n">
-        <v>219345.5414156841</v>
+        <v>218434.0158128692</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26802,34 +26802,34 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35428,7 +35428,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38111,7 +38111,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107653.707251522</v>
+        <v>1075244.351768155</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358932</v>
+        <v>1859783.096704494</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075097</v>
+        <v>4182642.717252408</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10079185.08320224</v>
+        <v>10222729.61758839</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>240.5619462598816</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>12.27152410635492</v>
+        <v>85.77646328132779</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>9.38528009949332</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.904044710517336</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>24.25641376481878</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.80566276230354</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>398.0313798843944</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>194.3444985545067</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>35.46527312190288</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>247.8838802335381</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>209.3713867067239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.7093048191902</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>149.9222220274005</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>211.7430979376325</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1381782921609</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.9559083391492</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>98.83406427779749</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>41.62150447912313</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183529</v>
+        <v>14.00436698854568</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>145.9089457972574</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>194.5716913732756</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8500920267603</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>102.6129256628876</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5650375952929</v>
+        <v>286.2555752860204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>412.7093048191902</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>149.9222220274005</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>211.7430979376325</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1381782921609</v>
       </c>
       <c r="V20" t="n">
-        <v>137.4847570058072</v>
+        <v>167.3925444983899</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.9559083391492</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>98.83406427779749</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>41.62150447912313</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>14.00436698854568</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>145.9089457972574</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>194.5716913732756</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8500920267603</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>203.7430225216617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5650375952929</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.8497856847784</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>101.5008511078723</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>283.3580910135614</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>258.2932742585202</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>71.5373381473641</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.61524188852272</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3441,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>23.54872654977475</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.8155841663236</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.61524188852295</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>54.34856834648846</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>129.4106056624395</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1579.049931616194</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1969.189263592006</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.189263592006</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1969.189263592006</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1579.049931616194</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,7 +4412,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C5" t="n">
-        <v>863.1126181035243</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D5" t="n">
-        <v>863.1126181035243</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="E5" t="n">
-        <v>477.32436550528</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="F5" t="n">
-        <v>66.33846071567245</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="G5" t="n">
-        <v>66.33846071567245</v>
+        <v>467.780593987723</v>
       </c>
       <c r="H5" t="n">
-        <v>66.33846071567245</v>
+        <v>140.5858740237259</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.831893336434</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>892.8693763960225</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2687.145005452043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2510.967517766213</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2292.332850738276</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2038.571065376368</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2038.571065376368</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>2038.571065376368</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X8" t="n">
-        <v>2038.571065376368</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y8" t="n">
-        <v>1648.431733400556</v>
+        <v>1250.638474227115</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5053,40 +5053,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>173.1405797505064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>173.1405797505064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>173.1405797505064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>173.1405797505064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>173.1405797505064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,7 +5208,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
         <v>529.6040388502502</v>
@@ -5217,34 +5217,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942404</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T13" t="n">
-        <v>323.2572191628421</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U13" t="n">
-        <v>323.2572191628421</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V13" t="n">
-        <v>323.2572191628421</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W13" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X13" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.175505447095</v>
+        <v>1629.293697226963</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.175505447095</v>
+        <v>1260.331180286551</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.175505447095</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.175505447095</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F14" t="n">
-        <v>783.1896006574873</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>3132.26728279809</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748108</v>
+        <v>2779.498627527976</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487028</v>
+        <v>2406.032869266896</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>2015.893537291085</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>141.5996147899777</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>645.9611546560963</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2633.599911365673</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>856.4545035517834</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>687.5183206238765</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>537.4016812115408</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>389.4885876291477</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610024</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>1038.102968382023</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1240.846680926016</v>
+        <v>1873.15540015067</v>
       </c>
       <c r="C17" t="n">
-        <v>990.4589231143618</v>
+        <v>1504.192883210259</v>
       </c>
       <c r="D17" t="n">
-        <v>990.4589231143618</v>
+        <v>1292.706634011548</v>
       </c>
       <c r="E17" t="n">
-        <v>604.6706705161175</v>
+        <v>906.9183814133035</v>
       </c>
       <c r="F17" t="n">
-        <v>193.6847657265099</v>
+        <v>495.9324766236959</v>
       </c>
       <c r="G17" t="n">
-        <v>193.6847657265099</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265099</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>285.1378091813605</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>714.7482357461184</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1299.994586194451</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>1967.800461440476</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2631.780136371715</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216832</v>
+        <v>3213.569677331765</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>3672.439207456887</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>3939.809354728268</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>3952.719547387313</v>
       </c>
       <c r="S17" t="n">
-        <v>3543.374718827853</v>
+        <v>3801.282959480848</v>
       </c>
       <c r="T17" t="n">
-        <v>3328.574857095564</v>
+        <v>3587.401042372128</v>
       </c>
       <c r="U17" t="n">
-        <v>3074.883153840715</v>
+        <v>3333.726114804289</v>
       </c>
       <c r="V17" t="n">
-        <v>2743.820266497144</v>
+        <v>3002.663227460718</v>
       </c>
       <c r="W17" t="n">
-        <v>2391.05161122703</v>
+        <v>2649.894572190604</v>
       </c>
       <c r="X17" t="n">
-        <v>2017.58585296595</v>
+        <v>2649.894572190604</v>
       </c>
       <c r="Y17" t="n">
-        <v>1627.446520990138</v>
+        <v>2259.755240214792</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4173550869474</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9643258058204</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0299161445691</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7924611391137</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2579031659986</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914995</v>
+        <v>220.9287028234237</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>121.0963146640323</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="J18" t="n">
-        <v>73.9917951266205</v>
+        <v>208.1028833519313</v>
       </c>
       <c r="K18" t="n">
-        <v>141.599614789977</v>
+        <v>555.2881545269465</v>
       </c>
       <c r="L18" t="n">
-        <v>278.8292128056703</v>
+        <v>716.394051381764</v>
       </c>
       <c r="M18" t="n">
-        <v>919.3745622727743</v>
+        <v>1384.801915421865</v>
       </c>
       <c r="N18" t="n">
-        <v>1592.580254525556</v>
+        <v>1612.058609500773</v>
       </c>
       <c r="O18" t="n">
-        <v>2142.016263278278</v>
+        <v>2187.657987269271</v>
       </c>
       <c r="P18" t="n">
-        <v>2565.984031759114</v>
+        <v>2402.080685679683</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2646.831022891829</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.685197650874</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2485.302424118291</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.765362125083</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.633956037446</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.481847805704</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.244491077502</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.392990871969</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.632692107015</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>330.616904391642</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>330.616904391642</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>226.9674845301394</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>190.813192441172</v>
       </c>
       <c r="L19" t="n">
-        <v>359.872719623048</v>
+        <v>389.3524157470671</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422855</v>
+        <v>609.0733125644301</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783894</v>
+        <v>829.0043539776811</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669879</v>
+        <v>1016.129972078897</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1152.727583085066</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377944</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377944</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377944</v>
       </c>
       <c r="T19" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377944</v>
       </c>
       <c r="U19" t="n">
-        <v>846.0830042674853</v>
+        <v>874.7185626344894</v>
       </c>
       <c r="V19" t="n">
-        <v>591.3985160615985</v>
+        <v>620.0340744286026</v>
       </c>
       <c r="W19" t="n">
-        <v>301.9813460246378</v>
+        <v>330.616904391642</v>
       </c>
       <c r="X19" t="n">
-        <v>73.9917951266205</v>
+        <v>330.616904391642</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9917951266205</v>
+        <v>330.616904391642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1589.251113847703</v>
+        <v>1661.669150951959</v>
       </c>
       <c r="C20" t="n">
-        <v>1220.288596907291</v>
+        <v>1292.706634011548</v>
       </c>
       <c r="D20" t="n">
-        <v>1220.288596907291</v>
+        <v>1292.706634011548</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.288596907291</v>
+        <v>906.9183814133035</v>
       </c>
       <c r="F20" t="n">
-        <v>809.3026921176836</v>
+        <v>495.9324766236959</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="H20" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403563</v>
+        <v>285.1378091813608</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604012</v>
+        <v>714.748235746119</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1299.994586194452</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>1967.800461440477</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449756</v>
+        <v>2631.780136371716</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3213.569677331765</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556126</v>
+        <v>3672.439207456887</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331026</v>
+        <v>3939.809354728268</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331026</v>
+        <v>3952.719547387313</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331026</v>
+        <v>3801.282959480848</v>
       </c>
       <c r="T20" t="n">
-        <v>3484.789894598737</v>
+        <v>3587.401042372128</v>
       </c>
       <c r="U20" t="n">
-        <v>3231.098191343888</v>
+        <v>3333.726114804289</v>
       </c>
       <c r="V20" t="n">
-        <v>3092.22469941883</v>
+        <v>3164.642736523087</v>
       </c>
       <c r="W20" t="n">
-        <v>2739.456044148716</v>
+        <v>2811.874081252973</v>
       </c>
       <c r="X20" t="n">
-        <v>2365.990285887636</v>
+        <v>2438.408322991893</v>
       </c>
       <c r="Y20" t="n">
-        <v>1975.850953911824</v>
+        <v>2048.268991016081</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4173550869474</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9643258058204</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0299161445691</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7924611391137</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2579031659986</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>220.9287028234237</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>121.0963146640323</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662052</v>
+        <v>187.526186788556</v>
       </c>
       <c r="K21" t="n">
-        <v>403.4201994324299</v>
+        <v>272.8908733211184</v>
       </c>
       <c r="L21" t="n">
-        <v>907.7817392985478</v>
+        <v>801.1287120263605</v>
       </c>
       <c r="M21" t="n">
-        <v>1548.327088765652</v>
+        <v>1469.536576066461</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.983830418316</v>
+        <v>1696.79327014537</v>
       </c>
       <c r="O21" t="n">
-        <v>2296.419839171038</v>
+        <v>2272.392647913867</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2402.080685679683</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2646.831022891829</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.685197650874</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2485.302424118291</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.765362125083</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.633956037446</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.481847805704</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.244491077502</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.392990871969</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.632692107015</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="C22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>190.813192441172</v>
       </c>
       <c r="L22" t="n">
-        <v>359.872719623048</v>
+        <v>389.3524157470671</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422855</v>
+        <v>609.0733125644301</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783894</v>
+        <v>829.0043539776811</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669879</v>
+        <v>1016.129972078897</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165603</v>
+        <v>1152.727583085066</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377944</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377944</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585963</v>
+        <v>958.0645755277811</v>
       </c>
       <c r="T22" t="n">
-        <v>1073.926476585963</v>
+        <v>958.0645755277811</v>
       </c>
       <c r="U22" t="n">
-        <v>846.0830042674853</v>
+        <v>958.0645755277811</v>
       </c>
       <c r="V22" t="n">
-        <v>591.3985160615985</v>
+        <v>703.3800873218943</v>
       </c>
       <c r="W22" t="n">
-        <v>301.9813460246378</v>
+        <v>413.9629172849337</v>
       </c>
       <c r="X22" t="n">
-        <v>73.99179512662052</v>
+        <v>185.9733663869163</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.99179512662052</v>
+        <v>79.05439094774627</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.607977814708</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>659.373105721172</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1396.390158327728</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1107.261519541286</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.117678709276</v>
+        <v>852.5770313353994</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.700508672316</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L27" t="n">
-        <v>732.1698305154059</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6387,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1212.69597660481</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>958.0114883989231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>668.5943183619626</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6545,22 +6545,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6682,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3607.068487499069</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>3607.068487499069</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.068487499069</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4599.952275783464</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>4345.267787577577</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W34" t="n">
-        <v>4055.850617540616</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X34" t="n">
-        <v>3827.861066642599</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y34" t="n">
-        <v>3607.068487499069</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6955,16 +6955,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632138</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.499100520942</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.499100520942</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>289.9398668627127</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>121.0036839348058</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.12275119798</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X40" t="n">
-        <v>692.3809108364826</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>471.5883316929525</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>498.9056400965593</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>745.6707680030233</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520942</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y43" t="n">
-        <v>1209.499100520942</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>841.7907383782456</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C46" t="n">
-        <v>672.8545554503387</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D46" t="n">
-        <v>522.7379160380029</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>374.8248224556098</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>227.9348749576995</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.231782352015</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X46" t="n">
-        <v>1244.231782352015</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y46" t="n">
-        <v>1023.439203208485</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>6.233205181928383</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162592684</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>85.59056630767338</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.29886828945429</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928668</v>
+        <v>105.3064933572014</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>20.72114122105776</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>73.53204524670087</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305351</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>87.16935584025379</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22600,19 +22600,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>87.19031221025327</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22761,13 +22761,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>139.6597921385063</v>
+        <v>66.15485296353346</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.99007165458445</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.4663446304625</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>373.3485615639872</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.57435786429436</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>192.191906592839</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>62.15995903003468</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>56.25950038248484</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15.75279013640062</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>133.4077599156282</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>183.1193802301919</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>117.3890115374695</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>145.3116549139591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>312.9148095184212</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>110.4925755599894</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>46.00254735532479</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8276547331671</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>151.8841590207553</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>120.4661307412137</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176917</v>
+        <v>11.11212910855056</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>124.9860859526906</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>203.7430225216617</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>222.9750205747625</v>
       </c>
       <c r="U19" t="n">
-        <v>60.69561706280413</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>312.9148095184212</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>110.4925755599894</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>190.2675014643277</v>
+        <v>160.359713971745</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8276547331671</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>151.8841590207553</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>120.4661307412137</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>11.11212910855056</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>124.9860859526906</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>222.9750205747625</v>
       </c>
       <c r="U22" t="n">
-        <v>60.69561706280413</v>
+        <v>286.2555752860204</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>112.7348676673164</v>
       </c>
     </row>
     <row r="23">
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>120.046709950517</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.87926138501598</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>27.94407814005717</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>214.9856601892269</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.2167382934146</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>92.830481864506</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>125.0667464684376</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>2.105225817279688</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.2167382934144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>232.1744299901025</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>37.08296280093811</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>155.4067089030352</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>743855.5326798137</v>
+        <v>743855.5326798136</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743855.5326798136</v>
+        <v>743855.5326798137</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>743855.5326798134</v>
+        <v>859587.3690997231</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859587.3690997222</v>
+        <v>887260.9353194153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859587.3690997224</v>
+        <v>887260.9353194154</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>986536.9482191135</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>986536.9482191135</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>986536.9482191135</v>
+        <v>986536.9482191138</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>986536.9482191136</v>
+        <v>986536.9482191138</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="E2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165453</v>
+        <v>354622.4384779898</v>
       </c>
       <c r="G2" t="n">
-        <v>354622.4384779895</v>
+        <v>366820.7323586494</v>
       </c>
       <c r="H2" t="n">
-        <v>354622.4384779897</v>
+        <v>366820.7323586494</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
+        <v>410580.5127245941</v>
+      </c>
+      <c r="K2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="L2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="M2" t="n">
         <v>410580.5127245944</v>
-      </c>
-      <c r="K2" t="n">
-        <v>410580.5127245944</v>
-      </c>
-      <c r="L2" t="n">
-        <v>410580.5127245944</v>
-      </c>
-      <c r="M2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="N2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="O2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
         <v>410580.5127245944</v>
@@ -26377,22 +26377,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>242330.9539870012</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004549</v>
+        <v>57494.41823181581</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990991</v>
+        <v>199831.8565861955</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>61381.19620826765</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704776</v>
+        <v>15228.9843368713</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>35944.74664026682</v>
+        <v>32774.5391063862</v>
       </c>
       <c r="G4" t="n">
-        <v>32774.53910638623</v>
+        <v>32017.4885202402</v>
       </c>
       <c r="H4" t="n">
-        <v>32774.53910638623</v>
+        <v>32017.4885202402</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>74144.87427222249</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360138</v>
+        <v>74144.87427222249</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-405161.4634016752</v>
+        <v>-411229.8771474944</v>
       </c>
       <c r="C6" t="n">
-        <v>184806.4158128692</v>
+        <v>178738.0020670501</v>
       </c>
       <c r="D6" t="n">
-        <v>184806.4158128692</v>
+        <v>178738.0020670502</v>
       </c>
       <c r="E6" t="n">
-        <v>218434.0158128692</v>
+        <v>212365.6020670501</v>
       </c>
       <c r="F6" t="n">
-        <v>218434.0158128691</v>
+        <v>6706.14063905993</v>
       </c>
       <c r="G6" t="n">
-        <v>16258.70408754707</v>
+        <v>200105.5610096043</v>
       </c>
       <c r="H6" t="n">
-        <v>252676.3560880021</v>
+        <v>257599.9792414201</v>
       </c>
       <c r="I6" t="n">
-        <v>33757.48162447626</v>
+        <v>88483.19337765822</v>
       </c>
       <c r="J6" t="n">
-        <v>112866.4220309825</v>
+        <v>111891.8307712606</v>
       </c>
       <c r="K6" t="n">
-        <v>289289.6412235755</v>
+        <v>288315.0499638534</v>
       </c>
       <c r="L6" t="n">
-        <v>289289.6412235755</v>
+        <v>288315.0499638536</v>
       </c>
       <c r="M6" t="n">
-        <v>289289.6412235753</v>
+        <v>288315.0499638538</v>
       </c>
       <c r="N6" t="n">
-        <v>289289.6412235753</v>
+        <v>226933.8537555861</v>
       </c>
       <c r="O6" t="n">
-        <v>228980.0540865276</v>
+        <v>273086.0656269824</v>
       </c>
       <c r="P6" t="n">
-        <v>289289.6412235755</v>
+        <v>288315.0499638538</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380636</v>
+        <v>645.1163831162988</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>645.1163831162988</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,19 +26795,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>988.1798868468284</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827565</v>
+        <v>988.1798868468284</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26971,22 +26971,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>215.7324361209783</v>
       </c>
       <c r="G3" t="n">
-        <v>215.7324361209769</v>
+        <v>51.64028277823377</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160366</v>
+        <v>185.2660223378012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27023,19 +27023,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>250.6101663282025</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282006</v>
+        <v>63.28244776407013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708164</v>
+        <v>227.0337564067447</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>250.6101663282025</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282004</v>
+        <v>63.28244776407035</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>250.6101663282025</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>63.28244776407013</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31767,34 +31767,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
@@ -31873,7 +31873,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>2.593432695944918</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055152</v>
+        <v>26.5599925973459</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651539</v>
+        <v>99.98331401041655</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>220.1143582774552</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>329.8943642968036</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712522</v>
+        <v>409.263130165328</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>455.3840888718384</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335966</v>
+        <v>462.7526795191919</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822509</v>
+        <v>436.9642331488897</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>372.9388634677494</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>280.061555044222</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>162.9097165866501</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>59.09784755884488</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>11.35275162649888</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2074746156755934</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.387608824061473</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>13.40137995869897</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118283</v>
+        <v>47.77512837229195</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>131.0986038557377</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>224.0683950678564</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>301.2876089261545</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842446</v>
+        <v>351.5884287983828</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900645</v>
+        <v>360.8939283246548</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>330.1474380651874</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>264.9724253595983</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>177.1270491907242</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080784</v>
+        <v>86.15346716409745</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>25.77422530658041</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308304</v>
+        <v>5.593037321546023</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.09129005421457063</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.163324625291686</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206993</v>
+        <v>10.34301348668427</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>34.98434418604454</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490361</v>
+        <v>82.24705100812221</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>135.1571701020704</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>172.9546447456385</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>182.3564228536777</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>178.0203947048633</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>164.430647945774</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>140.6988255898235</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510476</v>
+        <v>97.41257385056112</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937806</v>
+        <v>52.3073054244789</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>20.27357551531056</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522783</v>
+        <v>4.970568853519022</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.06345407047045569</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>2.593432695944918</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>26.5599925973459</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>99.98331401041655</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>220.1143582774552</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>329.8943642968036</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>409.263130165328</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>455.3840888718384</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>462.7526795191919</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>436.9642331488897</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>372.9388634677494</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>280.061555044222</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>162.9097165866501</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>59.09784755884488</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>11.35275162649888</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2074746156755934</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.387608824061473</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>13.40137995869897</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>47.77512837229195</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>131.0986038557377</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>224.0683950678564</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>301.2876089261545</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>351.5884287983828</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>360.8939283246548</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>330.1474380651874</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>264.9724253595983</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>177.1270491907242</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>86.15346716409745</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>25.77422530658041</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>5.593037321546023</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.09129005421457063</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.163324625291686</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>10.34301348668427</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>34.98434418604454</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>82.24705100812221</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>135.1571701020704</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>172.9546447456385</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>182.3564228536777</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>178.0203947048633</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>164.430647945774</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>140.6988255898235</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>97.41257385056112</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>52.3073054244789</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>20.27357551531056</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>4.970568853519022</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.06345407047045569</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>125.7087941787539</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>208.1650689228427</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>433.9499258229878</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>591.1579297457912</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730412</v>
+        <v>674.5513891373981</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513592</v>
+        <v>670.6865403345852</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233096</v>
+        <v>587.6662029899483</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>463.5045758839625</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>270.0708558296772</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>13.04059864550041</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>130.3520125294799</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268336</v>
+        <v>350.692193106076</v>
       </c>
       <c r="L18" t="n">
-        <v>138.6157555714074</v>
+        <v>162.7332291462803</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122262</v>
+        <v>675.1594586263644</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502846</v>
+        <v>229.5522162413215</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>581.4135128974724</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927636</v>
+        <v>216.5885842529415</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.26547556417809</v>
+        <v>247.2225628405518</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>112.8876782761876</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>200.5446700059547</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>221.9402998155183</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>222.1525670840919</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>189.0157758598137</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>137.977384854717</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353216</v>
+        <v>11.25053059886673</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>208.1650689228427</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>433.9499258229878</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>591.1579297457912</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>674.5513891373981</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>670.6865403345852</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>587.6662029899483</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>463.5045758839625</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>270.0708558296772</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>13.04059864550041</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>109.5674705462725</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>86.22695609349739</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>533.5735744497395</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122262</v>
+        <v>675.1594586263644</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067311</v>
+        <v>229.5522162413215</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>581.4135128974724</v>
       </c>
       <c r="P21" t="n">
-        <v>130.5086437738843</v>
+        <v>130.9980179452681</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>247.2225628405518</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>112.8876782761876</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>200.5446700059547</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>221.9402998155183</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>222.1525670840919</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>189.0157758598137</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>137.977384854717</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>11.25053059886673</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>383.9564222971671</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541616</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
@@ -36694,7 +36694,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>237.744794428193</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,13 +38107,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
